--- a/biology/Médecine/Hôpital_psychiatrique_de_Kharkiv/Hôpital_psychiatrique_de_Kharkiv.xlsx
+++ b/biology/Médecine/Hôpital_psychiatrique_de_Kharkiv/Hôpital_psychiatrique_de_Kharkiv.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_psychiatrique_de_Kharkiv</t>
+          <t>Hôpital_psychiatrique_de_Kharkiv</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'hôpital psychiatrique n°3 est un centre hospitalier situé à Kharkiv.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_psychiatrique_de_Kharkiv</t>
+          <t>Hôpital_psychiatrique_de_Kharkiv</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,48 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le traitement institutionnel commençait en 1793 par une maison de correction, puis un établissement spécifique pour aliénés en 1796. En 1812 toutes les parties de "l'institution agréable à Dieu" furent regroupées dans la demeure donnée par le général Sabourov, sa fille souffrait de problèmes mentaux. L'hôpital avait deux cent vingt-cinq lits dont cent vingt-cinq réservé pour les militaires. En 1897 c'était la plus grande institution psychiatrique de l'Empire russe avec mille cent lits.
-Noms
-1820 : l'hôpital de l'Ordre des soins publics sur le territoire de la datcha Sabourov,
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le traitement institutionnel commençait en 1793 par une maison de correction, puis un établissement spécifique pour aliénés en 1796. En 1812 toutes les parties de "l'institution agréable à Dieu" furent regroupées dans la demeure donnée par le général Sabourov, sa fille souffrait de problèmes mentaux. L'hôpital avait deux cent vingt-cinq lits dont cent vingt-cinq réservé pour les militaires. En 1897 c'était la plus grande institution psychiatrique de l'Empire russe avec mille cent lits.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hôpital_psychiatrique_de_Kharkiv</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_psychiatrique_de_Kharkiv</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1820 : l'hôpital de l'Ordre des soins publics sur le territoire de la datcha Sabourov,
 1865 : Hôpital psychiatrique provincial de Kharkiv Zemska,
 1918 : le 4e hôpital soviétique nommé d'après Y. M. Sverdlov,
 1926 : Institut ukrainien de psychiatrie clinique et de psycho-hygiène sociale,
